--- a/Deliverables/Installment2/Installment2.xlsx
+++ b/Deliverables/Installment2/Installment2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="6160" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="7120" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,28 +27,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Kids media players</t>
-  </si>
-  <si>
-    <t>Kids and digital media</t>
-  </si>
-  <si>
-    <t>The family and the computer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Parents and their concerns</t>
   </si>
   <si>
-    <t>Kids and entertainment</t>
+    <t>The family and technology</t>
+  </si>
+  <si>
+    <t>Research Papers</t>
+  </si>
+  <si>
+    <t>Source Type</t>
+  </si>
+  <si>
+    <t>More Data Needed</t>
+  </si>
+  <si>
+    <t>Preschoolers using media players</t>
+  </si>
+  <si>
+    <t>How many preschoolers have access to media players?</t>
+  </si>
+  <si>
+    <t>What are the demographics of preschoolers with access to media players?</t>
+  </si>
+  <si>
+    <t>How much time do preschoolers spend on digital media players?</t>
+  </si>
+  <si>
+    <t>How do preschoolers interact with media players?</t>
+  </si>
+  <si>
+    <t>Preschoolers and digital media</t>
+  </si>
+  <si>
+    <t>What kinds of media do preschoolers typically access?</t>
+  </si>
+  <si>
+    <t>Preschoolers and technology</t>
+  </si>
+  <si>
+    <t>How do preschoolers interact with technology?</t>
+  </si>
+  <si>
+    <t>What (if any) are the design guidelines currently associated with preschoolers?</t>
+  </si>
+  <si>
+    <t>Preschoolers and entertainment</t>
+  </si>
+  <si>
+    <t>What do preschoolers do for fun?</t>
+  </si>
+  <si>
+    <t>How do parents keep preschoolers entertained during free time?</t>
+  </si>
+  <si>
+    <t>How many media player enabled devices are in the home?</t>
+  </si>
+  <si>
+    <t>Where is/are the media player enabled device(s) located in the house?</t>
+  </si>
+  <si>
+    <t>How many families have access to a digital media enabled device?</t>
+  </si>
+  <si>
+    <t>How many of the family members are using digital media enabled devices?</t>
+  </si>
+  <si>
+    <t>What are parents concerns of the use of digital media by preschoolers?</t>
+  </si>
+  <si>
+    <t>How do parents control access to digital media?</t>
+  </si>
+  <si>
+    <t>What are the perceived benefits of preschooler access to digital media?</t>
+  </si>
+  <si>
+    <t>What are the perceived stigmas associated with preschooler use of digital media?</t>
+  </si>
+  <si>
+    <t>Source Type2</t>
+  </si>
+  <si>
+    <t>Questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,11 +127,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
       <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,14 +169,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,6 +328,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+  <autoFilter ref="A1:E24"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Questions" dataDxfId="5"/>
+    <tableColumn id="2" name="Research Papers" dataDxfId="4"/>
+    <tableColumn id="3" name="Source Type" dataDxfId="3"/>
+    <tableColumn id="4" name="Source Type2" dataDxfId="2"/>
+    <tableColumn id="5" name="More Data Needed" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,40 +607,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" ht="86" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Deliverables/Installment2/Installment2.xlsx
+++ b/Deliverables/Installment2/Installment2.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="7120" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="7120" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="whats" sheetId="2" r:id="rId1"/>
+    <sheet name="wheres" sheetId="3" r:id="rId2"/>
+    <sheet name="whens" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
   <si>
     <t>Parents and their concerns</t>
   </si>
@@ -35,45 +37,24 @@
     <t>The family and technology</t>
   </si>
   <si>
+    <t>Relevant Questions</t>
+  </si>
+  <si>
     <t>Research Papers</t>
   </si>
   <si>
-    <t>Source Type</t>
-  </si>
-  <si>
-    <t>More Data Needed</t>
-  </si>
-  <si>
     <t>Preschoolers using media players</t>
   </si>
   <si>
-    <t>How many preschoolers have access to media players?</t>
-  </si>
-  <si>
-    <t>What are the demographics of preschoolers with access to media players?</t>
-  </si>
-  <si>
-    <t>How much time do preschoolers spend on digital media players?</t>
-  </si>
-  <si>
-    <t>How do preschoolers interact with media players?</t>
-  </si>
-  <si>
     <t>Preschoolers and digital media</t>
   </si>
   <si>
-    <t>What kinds of media do preschoolers typically access?</t>
-  </si>
-  <si>
     <t>Preschoolers and technology</t>
   </si>
   <si>
     <t>How do preschoolers interact with technology?</t>
   </si>
   <si>
-    <t>What (if any) are the design guidelines currently associated with preschoolers?</t>
-  </si>
-  <si>
     <t>Preschoolers and entertainment</t>
   </si>
   <si>
@@ -83,41 +64,392 @@
     <t>How do parents keep preschoolers entertained during free time?</t>
   </si>
   <si>
-    <t>How many media player enabled devices are in the home?</t>
-  </si>
-  <si>
-    <t>Where is/are the media player enabled device(s) located in the house?</t>
-  </si>
-  <si>
-    <t>How many families have access to a digital media enabled device?</t>
-  </si>
-  <si>
-    <t>How many of the family members are using digital media enabled devices?</t>
-  </si>
-  <si>
-    <t>What are parents concerns of the use of digital media by preschoolers?</t>
-  </si>
-  <si>
-    <t>How do parents control access to digital media?</t>
-  </si>
-  <si>
-    <t>What are the perceived benefits of preschooler access to digital media?</t>
-  </si>
-  <si>
-    <t>What are the perceived stigmas associated with preschooler use of digital media?</t>
-  </si>
-  <si>
-    <t>Source Type2</t>
-  </si>
-  <si>
-    <t>Questions</t>
+    <t>Technical Reports</t>
+  </si>
+  <si>
+    <t>Newspaper/Magazine Articles</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Need More Information</t>
+  </si>
+  <si>
+    <t>Preschoolers using media player software</t>
+  </si>
+  <si>
+    <t>How many preschoolers have access to media player software?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>What are the demographics of preschoolers with access to media player software?</t>
+  </si>
+  <si>
+    <t>How much time do preschoolers spend on media player software?</t>
+  </si>
+  <si>
+    <t>How do preschoolers interact with media player software?</t>
+  </si>
+  <si>
+    <t>What percentage of preschoolers use iTunes compared to other media player software?</t>
+  </si>
+  <si>
+    <t>Preschoolers and digital media (Malcolm)</t>
+  </si>
+  <si>
+    <t>What kinds of media do preschoolers typically access on media player software?</t>
+  </si>
+  <si>
+    <t>What (if any) are the interface design guidelines currently associated with preschoolers?</t>
+  </si>
+  <si>
+    <t>What are the developmental milestones (cognitive and physical) that affect preschooler technology use and comprehension?</t>
+  </si>
+  <si>
+    <t>How many media player software enabled devices are in the home?</t>
+  </si>
+  <si>
+    <t>Where is/are the media player software enabled device(s) located in the house?</t>
+  </si>
+  <si>
+    <t>What percentage of families have access to media player software?</t>
+  </si>
+  <si>
+    <t>How many of the family members are using media player software?</t>
+  </si>
+  <si>
+    <t>What are parents concerns of the use of digital media software by preschoolers?</t>
+  </si>
+  <si>
+    <t>How do parents control access to digital media software?</t>
+  </si>
+  <si>
+    <t>What are the perceived benefits of preschooler access to digital media software?</t>
+  </si>
+  <si>
+    <t>What are the perceived stigmas associated with preschooler use of digital media software?</t>
+  </si>
+  <si>
+    <t>What are the developmental implications of digital media software usage by preschoolers?</t>
+  </si>
+  <si>
+    <t>Blog Post</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Source No.</t>
+  </si>
+  <si>
+    <t>Incorp into Persona?</t>
+  </si>
+  <si>
+    <t>Digital Childhood: Electronic Media and Technology Use Among Infants, Toddlers, and Preschoolers (Q1/4)</t>
+  </si>
+  <si>
+    <t>Vandewater et al.</t>
+  </si>
+  <si>
+    <t>Preschool children’s learning with technology at home (Q1/4)</t>
+  </si>
+  <si>
+    <t>Plowman et al.</t>
+  </si>
+  <si>
+    <t>Apple Music vs the competition: How today’s music streaming services compare (Q5)</t>
+  </si>
+  <si>
+    <t>Chance Miller</t>
+  </si>
+  <si>
+    <t>Angela Zimmerman</t>
+  </si>
+  <si>
+    <t>Zero to Eight: Children’s Media Use in America (Q2)</t>
+  </si>
+  <si>
+    <t>Rideout, V.</t>
+  </si>
+  <si>
+    <t>Livingstone et al.</t>
+  </si>
+  <si>
+    <t>Amy Bruckman, Alisa Bandlow, and Andrea Forte</t>
+  </si>
+  <si>
+    <t>Preschool children’s learning with technology at home (Q1)</t>
+  </si>
+  <si>
+    <t>Zero to Eight: Children’s Media Use in America (Q1)</t>
+  </si>
+  <si>
+    <t>Documenting Young Children’s Technology Use: Observations in the Home (Q1)</t>
+  </si>
+  <si>
+    <t>Lisa M. Given, et al.</t>
+  </si>
+  <si>
+    <t>Effective Use of Color and Graphics in Applications for Children, Part I: Toddlers and Preschoolers (Q2)</t>
+  </si>
+  <si>
+    <t>Catalina Naranjo-Bock</t>
+  </si>
+  <si>
+    <t>Families Matter: Designing Media for a Digital Age (Q2)</t>
+  </si>
+  <si>
+    <t>Takeuchi, Lori M.</t>
+  </si>
+  <si>
+    <t>Designing a digital library for young children (Q2)</t>
+  </si>
+  <si>
+    <t>Allison Druin et al.</t>
+  </si>
+  <si>
+    <t>Santrok</t>
+  </si>
+  <si>
+    <t>Always connected: The new digital media habits of young children (Q1/2)</t>
+  </si>
+  <si>
+    <t>Gutnick et al.</t>
+  </si>
+  <si>
+    <t>The NPD Group, Inc.</t>
+  </si>
+  <si>
+    <t>Children and Adolescents and Digital Media (Q4/5)</t>
+  </si>
+  <si>
+    <t>Chassiakos et al.</t>
+  </si>
+  <si>
+    <t>Everything You Wanted to Know About Kids and Technology But Were Too Distracted to Ask (Q1/4/5)</t>
+  </si>
+  <si>
+    <t>Pickerill, Martha</t>
+  </si>
+  <si>
+    <t>Young Children's Learning With Digital Media (Q3)</t>
+  </si>
+  <si>
+    <t>Lieberman et al.</t>
+  </si>
+  <si>
+    <t>Preschool children’s learning with technology at home (Q5)</t>
+  </si>
+  <si>
+    <t>How and Why Parents Guide the Media Use of Young Children (Q2)</t>
+  </si>
+  <si>
+    <t>Nikken, Peter and Schols, Marjon</t>
+  </si>
+  <si>
+    <t>Spring-2018</t>
+  </si>
+  <si>
+    <t>Heather L. Kirkorian, Ellen A. Wartella, Daniel R. Anderson</t>
+  </si>
+  <si>
+    <t>Which music streaming is best for kids? (Q5)</t>
+  </si>
+  <si>
+    <t>How parents of young children manage digital devices at home: The role of income, education and parental style (Q2)</t>
+  </si>
+  <si>
+    <t>HCI for Kids (Q4)</t>
+  </si>
+  <si>
+    <t>Physical and Cognitive Development in Early Childhood (pp. 197--231). In Life-span Development. (Q3)</t>
+  </si>
+  <si>
+    <t>Keren Perles</t>
+  </si>
+  <si>
+    <t>101 fun things to do with preschoolers (Q1)</t>
+  </si>
+  <si>
+    <t>100 ways to keep little kids happy (Q2)</t>
+  </si>
+  <si>
+    <t>Nancy Rones</t>
+  </si>
+  <si>
+    <t>41 Ways to entertain your kids (Q2)</t>
+  </si>
+  <si>
+    <t>Rob Mansfield</t>
+  </si>
+  <si>
+    <t>49 Million U.S. Internet Homes Now Own a Connected TV or Attached Content Device, According to The NPD Group. (Q3)</t>
+  </si>
+  <si>
+    <t>One in Two U.S. Households with Internet Access Has TV Hooked Up for Streaming (Q1/3)</t>
+  </si>
+  <si>
+    <t>Janko Roettgers</t>
+  </si>
+  <si>
+    <t>Media and Young Children's Learning (Q5)</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Related Milestone</t>
+  </si>
+  <si>
+    <t>Family Planning</t>
+  </si>
+  <si>
+    <t>Identify goals</t>
+  </si>
+  <si>
+    <t>Create relevant questions and start gathering sources (team)</t>
+  </si>
+  <si>
+    <t>Gather data about relevant questions</t>
+  </si>
+  <si>
+    <t>Preschoolers using media player software (Shashank)</t>
+  </si>
+  <si>
+    <t>Preschoolers and digital media &amp; Preschoolers and Technology (Malcolm)</t>
+  </si>
+  <si>
+    <t>Preschoolers and entertainment &amp; The family and technology (Chengxi)</t>
+  </si>
+  <si>
+    <t>Parents and their concerns (Keeley)</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Create an achievable action plan for proceeding with project (Keeley)</t>
+  </si>
+  <si>
+    <t>Conception and Gestation</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Create affinity diagram with appropriate data sources (Malcolm, Shashank)</t>
+  </si>
+  <si>
+    <t>Early gestation</t>
+  </si>
+  <si>
+    <t>Create persona skeletons for underrepresented population (Keeley, Malcolm)</t>
+  </si>
+  <si>
+    <t>Create persona skeletons for mainstream population (Chengxi, Shashank)</t>
+  </si>
+  <si>
+    <t>Prioritize persona skeletons (team)</t>
+  </si>
+  <si>
+    <t>Gestation</t>
+  </si>
+  <si>
+    <t>Generate persona document including data sources for underrepresented population -- looks like Abby document (Shashank, Malcolm)</t>
+  </si>
+  <si>
+    <t>Generate persona document for mainstream population -- looks like Abby document (Keeley, Chengxi)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create an </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ad hoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> persona (Keeley)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Process data and collect </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>factoids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> about population (Malcolm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write up a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>mainstream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> use-case for digital media software (Chengxi)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +480,40 @@
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,34 +532,137 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -205,12 +674,112 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Menlo Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -228,7 +797,28 @@
         <name val="Menlo Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -246,7 +836,80 @@
         <name val="Menlo Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Menlo Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -264,43 +927,7 @@
         <name val="Menlo Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Menlo Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Menlo Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -318,7 +945,7 @@
         <name val="Menlo Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -330,15 +957,237 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>660400</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Picture 2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$G$27" spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8077200" y="0"/>
+              <a:ext cx="7239000" cy="16979900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>787400</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Picture 3"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$F$30" spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7378700" y="0"/>
+              <a:ext cx="6565900" cy="38303200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$D$16" spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6946900" y="0"/>
+              <a:ext cx="6134100" cy="12598400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="A1:E24"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Questions" dataDxfId="5"/>
-    <tableColumn id="2" name="Research Papers" dataDxfId="4"/>
-    <tableColumn id="3" name="Source Type" dataDxfId="3"/>
-    <tableColumn id="4" name="Source Type2" dataDxfId="2"/>
-    <tableColumn id="5" name="More Data Needed" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Relevant Questions" dataDxfId="8"/>
+    <tableColumn id="2" name="Research Papers" dataDxfId="7"/>
+    <tableColumn id="3" name="Technical Reports" dataDxfId="6"/>
+    <tableColumn id="4" name="Newspaper/Magazine Articles" dataDxfId="5"/>
+    <tableColumn id="5" name="Blog Post" dataDxfId="4"/>
+    <tableColumn id="6" name="Book" dataDxfId="3"/>
+    <tableColumn id="7" name="Need More Information" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F30" totalsRowShown="0" headerRowDxfId="22" dataDxfId="15">
+  <autoFilter ref="A1:F30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Category" dataDxfId="21"/>
+    <tableColumn id="2" name="Description" dataDxfId="20" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Date" dataDxfId="19"/>
+    <tableColumn id="4" name="Author" dataDxfId="18"/>
+    <tableColumn id="5" name="Source No." dataDxfId="17"/>
+    <tableColumn id="6" name="Incorp into Persona?" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12">
+  <autoFilter ref="A1:D16"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Phase" dataDxfId="13"/>
+    <tableColumn id="2" name="Activity" dataDxfId="11"/>
+    <tableColumn id="3" name="Due Date" dataDxfId="9"/>
+    <tableColumn id="4" name="Related Milestone" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,250 +1455,1109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="29.83203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="86" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10">
+        <v>42856</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="10">
+        <v>41122</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10">
+        <v>42807</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="10">
+        <v>42439</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10">
+        <v>40841</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="10">
+        <v>42248</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2001</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10">
+        <v>41122</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10">
+        <v>40841</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42118</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10">
+        <v>40819</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="10">
+        <v>40695</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="11">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10">
+        <v>37069</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="11">
+        <v>11</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="150" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="11">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="11">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="16">
+        <v>39539</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="11">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10">
+        <v>42948</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="11">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10">
+        <v>40841</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="11">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10">
+        <v>40612</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="11">
+        <v>16</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="165" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="10">
+        <v>42436</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="11">
+        <v>17</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="10">
+        <v>42436</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="11">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="10">
+        <v>40841</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="11">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10">
+        <v>42675</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="11">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10">
+        <v>42016</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="11">
+        <v>20</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="10">
+        <v>40137</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="11">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="10">
+        <v>41122</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="10">
+        <v>42248</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="11">
+        <v>6</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10">
+        <v>42059</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="11">
+        <v>22</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="11">
+        <v>23</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43021</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43021</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43028</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43031</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43035</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43039</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>